--- a/output/ITAÚ_06170624000133.xlsx
+++ b/output/ITAÚ_06170624000133.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>4.701871286533776</v>
+        <v>4.69658863728468</v>
       </c>
       <c r="C192">
-        <v>0.003970664482351616</v>
+        <v>0.003040509343745113</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_06170624000133.xlsx
+++ b/output/ITAÚ_06170624000133.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ EQUITY HEDGE MULTIMERCADO - FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.02154335620767522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.04208707249535437</v>
-      </c>
-      <c r="C3">
         <v>0.02011046928438209</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.05786824505499899</v>
-      </c>
-      <c r="C4">
         <v>0.0151438137715838</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.07613365338436795</v>
-      </c>
-      <c r="C5">
         <v>0.01726624124956055</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.09409310665913062</v>
-      </c>
-      <c r="C6">
         <v>0.01668886872767272</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.1083638407389185</v>
-      </c>
-      <c r="C7">
         <v>0.01304343660784424</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1215838821503779</v>
-      </c>
-      <c r="C8">
         <v>0.01192752860166024</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.1390998542060009</v>
-      </c>
-      <c r="C9">
         <v>0.01561717525936634</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1645109304837766</v>
-      </c>
-      <c r="C10">
         <v>0.02230803224488898</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.1869987173561725</v>
-      </c>
-      <c r="C11">
         <v>0.01931092811902912</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.2094418669583449</v>
-      </c>
-      <c r="C12">
         <v>0.01890747586666364</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2344080162754354</v>
-      </c>
-      <c r="C13">
         <v>0.02064270305101856</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.2530520281720812</v>
-      </c>
-      <c r="C14">
         <v>0.0151036056561753</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.2615964510659405</v>
-      </c>
-      <c r="C15">
         <v>0.006818889161628539</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.2972840389681561</v>
-      </c>
-      <c r="C16">
         <v>0.02828764132307326</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3097383795134807</v>
-      </c>
-      <c r="C17">
         <v>0.009600318951916265</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3353004454239341</v>
-      </c>
-      <c r="C18">
         <v>0.01951692514343883</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.3578765128894634</v>
-      </c>
-      <c r="C19">
         <v>0.01690710696824627</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.3592018964514725</v>
-      </c>
-      <c r="C20">
         <v>0.0009760707615369402</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.3878081519040641</v>
-      </c>
-      <c r="C21">
         <v>0.02104636222718281</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.3978731334686003</v>
-      </c>
-      <c r="C22">
         <v>0.007252430064434323</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.417617896834594</v>
-      </c>
-      <c r="C23">
         <v>0.01412486075685582</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.4366558733024397</v>
-      </c>
-      <c r="C24">
         <v>0.01342955426166359</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.4579586039016046</v>
-      </c>
-      <c r="C25">
         <v>0.01482799812748214</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.4763859352840905</v>
-      </c>
-      <c r="C26">
         <v>0.01263913209413015</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.4980597696662639</v>
-      </c>
-      <c r="C27">
         <v>0.01468033111410194</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.5079833396358626</v>
-      </c>
-      <c r="C28">
         <v>0.006624281734639581</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.5223393724668461</v>
-      </c>
-      <c r="C29">
         <v>0.009520020847478383</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.543933239269774</v>
-      </c>
-      <c r="C30">
         <v>0.01418466026266962</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.5566745595119176</v>
-      </c>
-      <c r="C31">
         <v>0.008252507244529417</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.5647704410912275</v>
-      </c>
-      <c r="C32">
         <v>0.005200754088156012</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.572303025620799</v>
-      </c>
-      <c r="C33">
         <v>0.004813859165385681</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.5389223894312676</v>
-      </c>
-      <c r="C34">
         <v>-0.02123040892600947</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.5572097549603616</v>
-      </c>
-      <c r="C35">
         <v>0.01188322793578456</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.5719343615266488</v>
-      </c>
-      <c r="C36">
         <v>0.009455763116936078</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.6020289175416791</v>
-      </c>
-      <c r="C37">
         <v>0.0191449189938202</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.5822624680525001</v>
-      </c>
-      <c r="C38">
         <v>-0.01233838495219586</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.6022369236065648</v>
-      </c>
-      <c r="C39">
         <v>0.01262398366729256</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.5991574941142506</v>
-      </c>
-      <c r="C40">
         <v>-0.001921956389185242</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.6030294610501414</v>
-      </c>
-      <c r="C41">
         <v>0.002421254285548402</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.5892781999794885</v>
-      </c>
-      <c r="C42">
         <v>-0.008578295910821598</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.656305579161804</v>
-      </c>
-      <c r="C43">
         <v>0.04217473012791628</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.6925011644996355</v>
-      </c>
-      <c r="C44">
         <v>0.02185320498416043</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.6808228257289586</v>
-      </c>
-      <c r="C45">
         <v>-0.006900047701963841</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.7460819726420518</v>
-      </c>
-      <c r="C46">
         <v>0.03882571435498616</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.7038374046770641</v>
-      </c>
-      <c r="C47">
         <v>-0.02419392023220202</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.6974184929319052</v>
-      </c>
-      <c r="C48">
         <v>-0.003767326464097387</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.7487995149537112</v>
-      </c>
-      <c r="C49">
         <v>0.03027009675914227</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.775653983447163</v>
-      </c>
-      <c r="C50">
         <v>0.01535594461447598</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.7981014702739724</v>
-      </c>
-      <c r="C51">
         <v>0.0126418136844606</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.8148375551245437</v>
-      </c>
-      <c r="C52">
         <v>0.009307642047598819</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.8360411620689825</v>
-      </c>
-      <c r="C53">
         <v>0.01168347375475354</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.8570917011272718</v>
-      </c>
-      <c r="C54">
         <v>0.01146517817420167</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.8795639462780513</v>
-      </c>
-      <c r="C55">
         <v>0.01210077301898371</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>0.8983381652726556</v>
-      </c>
-      <c r="C56">
         <v>0.009988603490602932</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>0.9084262787019228</v>
-      </c>
-      <c r="C57">
         <v>0.005314181431851583</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>0.9282175768739183</v>
-      </c>
-      <c r="C58">
         <v>0.01037048084742209</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>0.9524430547253835</v>
-      </c>
-      <c r="C59">
         <v>0.01256366405016407</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>0.9731882712409927</v>
-      </c>
-      <c r="C60">
         <v>0.01062526072932113</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>0.9894770798008672</v>
-      </c>
-      <c r="C61">
         <v>0.008255070637344764</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.008441775244115</v>
-      </c>
-      <c r="C62">
         <v>0.009532502603722737</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.019311131261134</v>
-      </c>
-      <c r="C63">
         <v>0.005411835260047404</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.033701048659594</v>
-      </c>
-      <c r="C64">
         <v>0.007126151674047954</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.054700806046091</v>
-      </c>
-      <c r="C65">
         <v>0.01032588216460728</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.065838437478681</v>
-      </c>
-      <c r="C66">
         <v>0.005420561183319794</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.084793825960729</v>
-      </c>
-      <c r="C67">
         <v>0.009175639361799881</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.104621900183293</v>
-      </c>
-      <c r="C68">
         <v>0.009510808203504917</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.128009299732493</v>
-      </c>
-      <c r="C69">
         <v>0.01111239959403787</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.145554096260183</v>
-      </c>
-      <c r="C70">
         <v>0.008244699179602133</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.166632646560919</v>
-      </c>
-      <c r="C71">
         <v>0.009824292166521253</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.198269537728659</v>
-      </c>
-      <c r="C72">
         <v>0.01460187134997537</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.218242005388098</v>
-      </c>
-      <c r="C73">
         <v>0.009085540838670525</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.226081629278435</v>
-      </c>
-      <c r="C74">
         <v>0.003534160777451056</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.240062130742926</v>
-      </c>
-      <c r="C75">
         <v>0.006280318421666653</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.263885873162383</v>
-      </c>
-      <c r="C76">
         <v>0.01063530430361581</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.296114162981155</v>
-      </c>
-      <c r="C77">
         <v>0.01423582796325018</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.31726997009574</v>
-      </c>
-      <c r="C78">
         <v>0.009213743574107536</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.327680664607389</v>
-      </c>
-      <c r="C79">
         <v>0.004492654997474865</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.342759387493522</v>
-      </c>
-      <c r="C80">
         <v>0.006478003239622554</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.365242023911661</v>
-      </c>
-      <c r="C81">
         <v>0.009596647670332414</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.386123591926798</v>
-      </c>
-      <c r="C82">
         <v>0.008828512179317238</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.415843700881496</v>
-      </c>
-      <c r="C83">
         <v>0.01245539378398175</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.424403665496971</v>
-      </c>
-      <c r="C84">
         <v>0.003543260937101333</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.442299235067184</v>
-      </c>
-      <c r="C85">
         <v>0.007381431493811874</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.472605682577504</v>
-      </c>
-      <c r="C86">
         <v>0.01240898210799579</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.490237765751015</v>
-      </c>
-      <c r="C87">
         <v>0.007130972519294287</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.517272500143445</v>
-      </c>
-      <c r="C88">
         <v>0.01085628640134151</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.539986726285433</v>
-      </c>
-      <c r="C89">
         <v>0.009023348143951226</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.555232341961248</v>
-      </c>
-      <c r="C90">
         <v>0.006002242262939106</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.57072635410638</v>
-      </c>
-      <c r="C91">
         <v>0.006063641215984239</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.593065139240724</v>
-      </c>
-      <c r="C92">
         <v>0.008689678346612162</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.60407961156539</v>
-      </c>
-      <c r="C93">
         <v>0.004247665111834387</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.610828062024119</v>
-      </c>
-      <c r="C94">
         <v>0.002591491607536689</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.619521215579491</v>
-      </c>
-      <c r="C95">
         <v>0.003329653791384724</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>1.622793380491615</v>
-      </c>
-      <c r="C96">
         <v>0.00124914617704297</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>1.639057521086366</v>
-      </c>
-      <c r="C97">
         <v>0.006201075813186074</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>1.667983466138248</v>
-      </c>
-      <c r="C98">
         <v>0.01096071033721713</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>1.690187887667689</v>
-      </c>
-      <c r="C99">
         <v>0.008322548400789165</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>1.73644384626888</v>
-      </c>
-      <c r="C100">
         <v>0.01719432267658205</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>1.769504702500274</v>
-      </c>
-      <c r="C101">
         <v>0.01208168633771622</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>1.803887779734047</v>
-      </c>
-      <c r="C102">
         <v>0.01241488313875472</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>1.826193674248226</v>
-      </c>
-      <c r="C103">
         <v>0.007955344959025057</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>1.844532725037578</v>
-      </c>
-      <c r="C104">
         <v>0.006488957553211883</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>1.849033047392763</v>
-      </c>
-      <c r="C105">
         <v>0.001582095475848533</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>1.85337813324948</v>
-      </c>
-      <c r="C106">
         <v>0.001525108970109601</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>1.872855705506062</v>
-      </c>
-      <c r="C107">
         <v>0.006826144782430266</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>1.908914126114746</v>
-      </c>
-      <c r="C108">
         <v>0.01255142071339499</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>1.943685023518148</v>
-      </c>
-      <c r="C109">
         <v>0.01195322236955954</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>1.960999676063535</v>
-      </c>
-      <c r="C110">
         <v>0.005881965090372754</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>1.968738098045673</v>
-      </c>
-      <c r="C111">
         <v>0.002613449114734934</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>1.958109096560626</v>
-      </c>
-      <c r="C112">
         <v>-0.003580309590813902</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>1.970544100312777</v>
-      </c>
-      <c r="C113">
         <v>0.004203700183542436</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>2.000834102513015</v>
-      </c>
-      <c r="C114">
         <v>0.01019678590095618</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>2.030207866008674</v>
-      </c>
-      <c r="C115">
         <v>0.009788532951908291</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>2.065096681706897</v>
-      </c>
-      <c r="C116">
         <v>0.01151367075823018</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>2.09988565087962</v>
-      </c>
-      <c r="C117">
         <v>0.01135003974926829</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>2.163130156948799</v>
-      </c>
-      <c r="C118">
         <v>0.02040220614306598</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>2.190213594759548</v>
-      </c>
-      <c r="C119">
         <v>0.008562226802856232</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>2.233679272177562</v>
-      </c>
-      <c r="C120">
         <v>0.0136246919295353</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>2.290446404327827</v>
-      </c>
-      <c r="C121">
         <v>0.01755496676454182</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>2.280709515735315</v>
-      </c>
-      <c r="C122">
         <v>-0.002959139094229069</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.282452808962875</v>
-      </c>
-      <c r="C123">
         <v>0.0005313768924672946</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.331505193148811</v>
-      </c>
-      <c r="C124">
         <v>0.01494382007625417</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>2.323760807482797</v>
-      </c>
-      <c r="C125">
         <v>-0.002324590603052568</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.351719912876</v>
-      </c>
-      <c r="C126">
         <v>0.008411888524065603</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.414581026359031</v>
-      </c>
-      <c r="C127">
         <v>0.01875488260267288</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.486137462009752</v>
-      </c>
-      <c r="C128">
         <v>0.02095613930328155</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.546346904780299</v>
-      </c>
-      <c r="C129">
         <v>0.01727110403037191</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>2.579576912772539</v>
-      </c>
-      <c r="C130">
         <v>0.009370207958913301</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>2.593357179032952</v>
-      </c>
-      <c r="C131">
         <v>0.003849691345153783</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>2.630280424162498</v>
-      </c>
-      <c r="C132">
         <v>0.01027541746893146</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>2.676032632193863</v>
-      </c>
-      <c r="C133">
         <v>0.01260294045794552</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>2.702972489797357</v>
-      </c>
-      <c r="C134">
         <v>0.007328514270401376</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>2.728619131588233</v>
-      </c>
-      <c r="C135">
         <v>0.006925960660398855</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>2.763238497205878</v>
-      </c>
-      <c r="C136">
         <v>0.009284768541886201</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>2.809488492123193</v>
-      </c>
-      <c r="C137">
         <v>0.01228994520322169</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>2.823051897151753</v>
-      </c>
-      <c r="C138">
         <v>0.003560426828065122</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>2.884856444641426</v>
-      </c>
-      <c r="C139">
         <v>0.0161662852486304</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>2.95420532331073</v>
-      </c>
-      <c r="C140">
         <v>0.01785107883843673</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>2.993663405164098</v>
-      </c>
-      <c r="C141">
         <v>0.009978764031487231</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>3.053216752349443</v>
-      </c>
-      <c r="C142">
         <v>0.01491195955781799</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>3.142602976330048</v>
-      </c>
-      <c r="C143">
         <v>0.02205315665114438</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>3.170822134483782</v>
-      </c>
-      <c r="C144">
         <v>0.006811938849793808</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>3.219055506084087</v>
-      </c>
-      <c r="C145">
         <v>0.01156447579040076</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>3.307311883046737</v>
-      </c>
-      <c r="C146">
         <v>0.02091851525427457</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>3.354419021982951</v>
-      </c>
-      <c r="C147">
         <v>0.01093655166267959</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>3.417658558315567</v>
-      </c>
-      <c r="C148">
         <v>0.0145230709339994</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>3.470998921567165</v>
-      </c>
-      <c r="C149">
         <v>0.01207435172897053</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>3.495327679580301</v>
-      </c>
-      <c r="C150">
         <v>0.00544145915486105</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>3.551554917622098</v>
-      </c>
-      <c r="C151">
         <v>0.0125079286872023</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>3.597374985147265</v>
-      </c>
-      <c r="C152">
         <v>0.01006690424579237</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>3.662411036068089</v>
-      </c>
-      <c r="C153">
         <v>0.01414634462730069</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>3.714330325739124</v>
-      </c>
-      <c r="C154">
         <v>0.01113571696476168</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>3.741297742790832</v>
-      </c>
-      <c r="C155">
         <v>0.005720307061317209</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>3.746754242460796</v>
-      </c>
-      <c r="C156">
         <v>0.001150845183317539</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>3.758990998903495</v>
-      </c>
-      <c r="C157">
         <v>0.002577920789165411</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>3.802962053350574</v>
-      </c>
-      <c r="C158">
         <v>0.009239575039585057</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>3.852999710399897</v>
-      </c>
-      <c r="C159">
         <v>0.0104180829441316</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>3.934993767498555</v>
-      </c>
-      <c r="C160">
         <v>0.0168955413129217</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>4.032921884325315</v>
-      </c>
-      <c r="C161">
         <v>0.01984361509668076</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>4.037005200603416</v>
-      </c>
-      <c r="C162">
         <v>0.0008113212110083534</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>4.145887972198389</v>
-      </c>
-      <c r="C163">
         <v>0.02161656922290445</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>4.186686075746917</v>
-      </c>
-      <c r="C164">
         <v>0.007928292214861132</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>4.160813807916067</v>
-      </c>
-      <c r="C165">
         <v>-0.004988207779111464</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>4.153587720594182</v>
-      </c>
-      <c r="C166">
         <v>-0.001400183690177248</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>4.314146355127435</v>
-      </c>
-      <c r="C167">
         <v>0.03115473010998682</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>4.35568052184041</v>
-      </c>
-      <c r="C168">
         <v>0.007815773962059014</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>4.485683860599792</v>
-      </c>
-      <c r="C169">
         <v>0.0242739159345351</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>4.499843634015948</v>
-      </c>
-      <c r="C170">
         <v>0.002581223011748346</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>4.531622207855166</v>
-      </c>
-      <c r="C171">
         <v>0.005778086788262415</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>4.52558569474884</v>
-      </c>
-      <c r="C172">
         <v>-0.0010912735684937</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>4.556786243046322</v>
-      </c>
-      <c r="C173">
         <v>0.005646559481853997</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>4.600235384795407</v>
-      </c>
-      <c r="C174">
         <v>0.007819113395527211</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>4.668269090452368</v>
-      </c>
-      <c r="C175">
         <v>0.01214836537793973</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>4.751619162762035</v>
-      </c>
-      <c r="C176">
         <v>0.01470467809124698</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>4.807568637709366</v>
-      </c>
-      <c r="C177">
         <v>0.00972760423874508</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>4.771722018237125</v>
-      </c>
-      <c r="C178">
         <v>-0.006172397040559052</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>4.771398714283971</v>
-      </c>
-      <c r="C179">
         <v>-5.601516360842496e-05</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>4.830441624344841</v>
-      </c>
-      <c r="C180">
         <v>0.01023026011263806</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>4.949886170442989</v>
-      </c>
-      <c r="C181">
         <v>0.0204863634341883</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>5.063987707582507</v>
-      </c>
-      <c r="C182">
         <v>0.01917709580837634</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>5.022519683545247</v>
-      </c>
-      <c r="C183">
         <v>-0.006838408327478618</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>4.795014089203157</v>
-      </c>
-      <c r="C184">
         <v>-0.03777581582069078</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>4.734307853493974</v>
-      </c>
-      <c r="C185">
         <v>-0.01047559760420369</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>4.719001607032086</v>
-      </c>
-      <c r="C186">
         <v>-0.002669240447661148</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>4.79555461582355</v>
-      </c>
-      <c r="C187">
         <v>0.01338572954715267</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>4.804982296442978</v>
-      </c>
-      <c r="C188">
         <v>0.001626708959602929</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>4.807302801982654</v>
-      </c>
-      <c r="C189">
         <v>0.000399743775462813</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>4.734816483441516</v>
-      </c>
-      <c r="C190">
         <v>-0.01248192508859547</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>4.679320609904142</v>
-      </c>
-      <c r="C191">
         <v>-0.009677009490645427</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>4.69658863728468</v>
-      </c>
-      <c r="C192">
-        <v>0.003040509343745113</v>
+        <v>0.002255597970602929</v>
       </c>
     </row>
   </sheetData>
